--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>李猛</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>6月4号</t>
+  </si>
+  <si>
+    <t>8:26-18:00</t>
   </si>
   <si>
     <t>6月5号</t>
@@ -173,8 +176,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -314,23 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +348,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,169 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,10 +645,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,33 +657,33 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,88 +702,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1423,12 +1426,12 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,15 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +232,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +292,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -319,21 +317,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,115 +348,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,67 +510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +561,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +592,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -606,184 +639,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1418,7 +1418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1427,6 +1427,9 @@
       </c>
       <c r="C20" t="s">
         <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,7 +189,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +225,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -226,29 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,8 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,24 +310,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +348,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +492,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +567,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +598,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -600,198 +617,182 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1114,7 +1115,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1428,6 +1429,9 @@
       <c r="C20" t="s">
         <v>49</v>
       </c>
+      <c r="E20" s="2">
+        <v>0.354166666666667</v>
+      </c>
       <c r="G20" t="s">
         <v>38</v>
       </c>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -188,13 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -318,22 +311,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +348,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,169 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,148 +642,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1432,6 +1432,9 @@
       <c r="E20" s="2">
         <v>0.354166666666667</v>
       </c>
+      <c r="F20" s="2">
+        <v>0.354166666666667</v>
+      </c>
       <c r="G20" t="s">
         <v>38</v>
       </c>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>李猛</t>
   </si>
@@ -34,6 +34,9 @@
     <t>杨栋宇</t>
   </si>
   <si>
+    <t>蒋贯群</t>
+  </si>
+  <si>
     <t>5月17日</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>6月5号</t>
+  </si>
+  <si>
+    <t>8:30-</t>
   </si>
 </sst>
 </file>
@@ -174,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,6 +191,102 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +306,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -211,13 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -226,114 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +548,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +564,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +598,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,60 +645,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +663,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,18 +1118,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="3:9">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1142,292 +1148,295 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
         <v>0.354166666666667</v>
@@ -1436,15 +1445,18 @@
         <v>0.354166666666667</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>李猛</t>
   </si>
@@ -173,6 +173,30 @@
   </si>
   <si>
     <t>8:30-</t>
+  </si>
+  <si>
+    <t>6月6号</t>
+  </si>
+  <si>
+    <t>6月7号</t>
+  </si>
+  <si>
+    <t>6月8号</t>
+  </si>
+  <si>
+    <t>6月9号</t>
+  </si>
+  <si>
+    <t>6月10号</t>
+  </si>
+  <si>
+    <t>6月11号</t>
+  </si>
+  <si>
+    <t>6月12号</t>
+  </si>
+  <si>
+    <t>6月13号</t>
   </si>
 </sst>
 </file>
@@ -180,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,11 +221,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -218,30 +241,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,37 +288,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,40 +317,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +378,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,175 +426,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,20 +574,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +607,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,195 +653,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1455,8 +1479,75 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
       <c r="I21" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>6月5号</t>
   </si>
   <si>
-    <t>8:30-</t>
+    <t>8:30-18:20</t>
   </si>
   <si>
     <t>6月6号</t>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,12 +221,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,22 +301,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,84 +338,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,25 +378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,157 +522,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +569,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,17 +596,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,17 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,171 +669,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1486,12 +1486,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.340277777777778</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>李猛</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>6月6号</t>
+  </si>
+  <si>
+    <t>8:10:18:20</t>
   </si>
   <si>
     <t>6月7号</t>
@@ -204,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,16 +228,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,30 +340,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,75 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,67 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,115 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +572,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,41 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -645,175 +672,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,13 +1496,13 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="2">
-        <v>0.340277777777778</v>
+      <c r="I22" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1515,7 +1518,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>李猛</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>6月4号</t>
-  </si>
-  <si>
-    <t>8:26-18:00</t>
   </si>
   <si>
     <t>6月5号</t>
@@ -208,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,10 +221,48 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -235,18 +270,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +311,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -274,44 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,35 +354,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,19 +378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,55 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,103 +534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,30 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,41 +582,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -672,151 +610,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1145,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1463,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2">
         <v>0.354166666666667</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1486,23 +1483,26 @@
         <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,47 +232,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,59 +348,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -348,22 +356,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,13 +384,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,150 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,12 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +569,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,15 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,41 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,8 +655,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1452,7 +1452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1470,6 +1470,9 @@
       </c>
       <c r="G20" t="s">
         <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1482,6 +1485,9 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
       <c r="I21" t="s">
         <v>51</v>
       </c>
@@ -1496,16 +1502,22 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>李猛</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>6月7号</t>
+  </si>
+  <si>
+    <t>8:10:18:10</t>
   </si>
   <si>
     <t>6月8号</t>
@@ -205,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,34 +224,77 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,64 +308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,9 +324,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,28 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,25 +387,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,151 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,11 +577,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,45 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,151 +631,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1509,7 +1512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1519,10 +1522,13 @@
       <c r="H23" t="s">
         <v>37</v>
       </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -224,10 +224,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -236,50 +266,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,78 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,13 +381,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,8 +578,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,19 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,165 +662,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1526,12 +1526,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,8 +222,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -231,15 +253,106 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,122 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +381,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,18 +501,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,19 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,127 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,21 +589,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,151 +663,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1526,15 +1526,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -222,21 +222,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,104 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +328,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -381,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,24 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,32 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +610,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +648,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +690,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1519,6 +1519,9 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
@@ -1526,12 +1529,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,15 +222,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,15 +281,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,53 +312,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,50 +371,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,21 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,17 +584,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,22 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +648,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +690,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1529,7 +1529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1538,6 +1538,9 @@
       </c>
       <c r="C24" t="s">
         <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>李猛</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>6月7号</t>
+  </si>
+  <si>
+    <t>8:40-18:00</t>
   </si>
   <si>
     <t>8:10:18:10</t>
@@ -207,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,7 +225,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,12 +257,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,55 +324,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,14 +340,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,27 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +575,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,13 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +632,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,40 +675,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +693,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1151,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1488,6 +1491,12 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" t="s">
         <v>37</v>
       </c>
@@ -1505,6 +1514,12 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" t="s">
         <v>44</v>
       </c>
@@ -1522,16 +1537,22 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1539,13 +1560,19 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1553,7 +1580,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1561,7 +1588,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1569,7 +1596,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1577,7 +1604,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,7 +225,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,121 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -362,13 +369,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -384,13 +384,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,145 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +575,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,80 +670,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -678,148 +678,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,8 +1150,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1550,7 +1550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1568,6 +1568,9 @@
       </c>
       <c r="H24" t="s">
         <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>李猛</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>6月11号</t>
+  </si>
+  <si>
+    <t>8:28-18:00</t>
+  </si>
+  <si>
+    <t>8:10-18:00</t>
   </si>
   <si>
     <t>6月12号</t>
@@ -212,8 +218,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -233,6 +239,75 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,32 +322,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,38 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,15 +367,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -353,21 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -384,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,80 +581,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,6 +602,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -681,10 +687,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +699,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1589,17 +1595,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,9 +231,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +241,88 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,6 +334,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -260,59 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -320,66 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,6 +390,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,175 +486,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +581,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,53 +632,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,159 +667,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1474,11 +1474,11 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.354166666666667</v>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -1500,6 +1500,12 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
       <c r="G21" t="s">
         <v>39</v>
       </c>
@@ -1523,6 +1529,12 @@
       <c r="D22" t="s">
         <v>42</v>
       </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
       <c r="G22" t="s">
         <v>39</v>
       </c>
@@ -1546,6 +1558,12 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
       <c r="G23" t="s">
         <v>39</v>
       </c>
@@ -1569,6 +1587,12 @@
       <c r="D24" t="s">
         <v>37</v>
       </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
       <c r="G24" t="s">
         <v>44</v>
       </c>
@@ -1579,20 +1603,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,21 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +260,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,17 +303,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,10 +336,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,24 +360,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,38 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +581,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,21 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,60 +681,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1631,7 +1631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1644,13 +1644,19 @@
       <c r="G27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">

--- a/临港工作时间表.xlsx
+++ b/临港工作时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>李猛</t>
   </si>
@@ -205,10 +205,16 @@
     <t>8:10-18:00</t>
   </si>
   <si>
+    <t>请假/</t>
+  </si>
+  <si>
     <t>6月12号</t>
   </si>
   <si>
     <t>6月13号</t>
+  </si>
+  <si>
+    <t>8:30-18:40</t>
   </si>
 </sst>
 </file>
@@ -216,9 +222,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -231,9 +237,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,8 +293,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,87 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,35 +373,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,6 +396,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,7 +492,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,157 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +587,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,6 +610,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,30 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -684,148 +690,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1631,7 +1637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1647,10 +1653,13 @@
       <c r="H27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1658,13 +1667,19 @@
       <c r="H28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
